--- a/extra/Excel_Examples/EESG_5.0MW.xlsx
+++ b/extra/Excel_Examples/EESG_5.0MW.xlsx
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>421.8726437847953</v>
+        <v>442.2551343513689</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
@@ -718,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>536.6573558114088</v>
+        <v>537.714446041369</v>
       </c>
       <c r="D5" t="n">
         <v>540.3539364174443</v>
@@ -735,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>43.66052531673165</v>
+        <v>42.02379756234919</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
@@ -765,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>552.32625496051</v>
+        <v>615.3269006666842</v>
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
@@ -780,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>528.1868898265453</v>
+        <v>520.7552869418047</v>
       </c>
       <c r="D9" t="n">
         <v>540.3539364174443</v>
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>111.7013319815187</v>
+        <v>87.6198993392898</v>
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s">
@@ -812,10 +812,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2890221090282856</v>
+        <v>0.2902642724179555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3193023903592906</v>
+        <v>0.3195664351308616</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -829,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4718727730810924</v>
+        <v>0.3856571831081054</v>
       </c>
       <c r="D12" t="n">
-        <v>29.47280992035839</v>
+        <v>30.475772811228</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -846,10 +846,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>2.376341351344733</v>
+        <v>2.586404515791856</v>
       </c>
       <c r="D13" t="n">
-        <v>2.786439010628911</v>
+        <v>2.788743235947206</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -863,10 +863,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3332386379413316</v>
+        <v>0.3357565556641331</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3541839252065321</v>
+        <v>0.3538499724112791</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -880,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8549720007928897</v>
+        <v>0.7845211231044245</v>
       </c>
       <c r="D15" t="n">
-        <v>29.47280992035839</v>
+        <v>30.475772811228</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>2.99200328132051</v>
+        <v>3.038199160844001</v>
       </c>
       <c r="D16" t="n">
-        <v>3.090837826245661</v>
+        <v>3.087923538333959</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -914,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>6.811907854458349</v>
+        <v>6.816322677114862</v>
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
@@ -929,7 +929,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>1.473640496017919</v>
+        <v>1.5237886405614</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
@@ -944,7 +944,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2163330050117209</v>
+        <v>0.2235499568817908</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -959,7 +959,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>199.9999999999989</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
@@ -972,7 +972,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>65.45557885405165</v>
+        <v>60.68648523814628</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s">
@@ -987,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>14.86127755034511</v>
+        <v>14.87090919925108</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
@@ -1002,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>4.404438220893844</v>
+        <v>4.080886005356184</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1019,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>18.16378367264403</v>
+        <v>18.17555568797355</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>140.8594919641894</v>
+        <v>139.3038006344272</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
@@ -1049,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>132.236231563619</v>
+        <v>131.3613291434006</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
@@ -1064,7 +1064,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="n">
-        <v>140</v>
+        <v>139.9999999999992</v>
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s">
@@ -1079,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="n">
-        <v>140</v>
+        <v>139.9999999999992</v>
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s">
@@ -1094,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9046294301275276</v>
+        <v>0.9037273160872233</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -1111,7 +1111,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>1.026270192343884</v>
+        <v>1.025246775772605</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -1128,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4638266737492538</v>
+        <v>0.4685388094512936</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6033267448473616</v>
+        <v>0.6068106179540155</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -1162,7 +1162,7 @@
         <v>45</v>
       </c>
       <c r="C33" t="n">
-        <v>1.755363293155829</v>
+        <v>1.753612810781662</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -1179,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="n">
-        <v>1.994541378504005</v>
+        <v>1.992786232819204</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="C37" t="n">
-        <v>1903.908842513416</v>
+        <v>1990.67244449212</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
@@ -1243,7 +1243,7 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>905.4735926731821</v>
+        <v>866.5944351197859</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
@@ -1258,7 +1258,7 @@
         <v>56</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06985454401525579</v>
+        <v>0.07781636740552501</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s">
@@ -1273,7 +1273,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00899911056465664</v>
+        <v>0.009401250805575027</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
@@ -1318,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="C43" t="n">
-        <v>291.9953194654718</v>
+        <v>269.1353163206205</v>
       </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s">
@@ -1333,7 +1333,7 @@
         <v>66</v>
       </c>
       <c r="C44" t="n">
-        <v>3.10098666763134</v>
+        <v>3.219920919213044</v>
       </c>
       <c r="D44" t="s">
         <v>67</v>
@@ -1350,7 +1350,7 @@
         <v>69</v>
       </c>
       <c r="C45" t="n">
-        <v>54.83554362302718</v>
+        <v>52.44702803020851</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -1382,7 +1382,7 @@
         <v>73</v>
       </c>
       <c r="C47" t="n">
-        <v>46.03586263945986</v>
+        <v>46.08969199886552</v>
       </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s">
@@ -1397,7 +1397,7 @@
         <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>68.98061163288669</v>
+        <v>68.95648483407071</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s">
@@ -1412,7 +1412,7 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>19.30293090502388</v>
+        <v>19.84421318014638</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
@@ -1427,7 +1427,7 @@
         <v>77</v>
       </c>
       <c r="C50" t="n">
-        <v>3.892659711926078</v>
+        <v>3.891298207359714</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s">
@@ -1442,7 +1442,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="n">
-        <v>1.379612232657734</v>
+        <v>1.379129696681414</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -1474,7 +1474,7 @@
         <v>83</v>
       </c>
       <c r="C53" t="n">
-        <v>1.498410319214039</v>
+        <v>1.496136811583988</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
@@ -1491,7 +1491,7 @@
         <v>84</v>
       </c>
       <c r="C54" t="n">
-        <v>93.12673345777343</v>
+        <v>93.00000009519941</v>
       </c>
       <c r="D54" t="n">
         <v>93</v>
@@ -1508,7 +1508,7 @@
         <v>85</v>
       </c>
       <c r="C55" t="n">
-        <v>90.31274904386576</v>
+        <v>91.22517390254697</v>
       </c>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
@@ -1523,7 +1523,7 @@
         <v>86</v>
       </c>
       <c r="C56" t="n">
-        <v>20.75832280831305</v>
+        <v>20.85985969799439</v>
       </c>
       <c r="D56" t="s"/>
       <c r="E56" t="s">
@@ -1538,7 +1538,7 @@
         <v>88</v>
       </c>
       <c r="C57" t="n">
-        <v>38.43184605833562</v>
+        <v>35.80653487160193</v>
       </c>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
@@ -1553,7 +1553,7 @@
         <v>89</v>
       </c>
       <c r="C58" t="n">
-        <v>149.5029179105144</v>
+        <v>147.8915684721433</v>
       </c>
       <c r="D58" t="s"/>
       <c r="E58" t="s">
@@ -1568,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="C59" t="n">
-        <v>168.8325647241645</v>
+        <v>168.5095237236897</v>
       </c>
       <c r="D59" t="s"/>
       <c r="E59" t="s">
